--- a/biology/Botanique/Luzerne_d'Arabie/Luzerne_d'Arabie.xlsx
+++ b/biology/Botanique/Luzerne_d'Arabie/Luzerne_d'Arabie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luzerne_d%27Arabie</t>
+          <t>Luzerne_d'Arabie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Medicago arabica
 La luzerne d'Arabie ou luzerne tachetée (Medicago arabica) est une plante herbacée de la famille des Fabaceae, de la sous-famille des Faboideae, de la tribu des Trifolieae, originaire du bassin méditerranéen.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luzerne_d%27Arabie</t>
+          <t>Luzerne_d'Arabie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (14 aout 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (14 aout 2016) :
 Medicago maculata Sibth ;
 Medicago arabica ssp. inermis Ricker.</t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luzerne_d%27Arabie</t>
+          <t>Luzerne_d'Arabie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante annuelle assez petite au développement printanier. La plante adulte a une hauteur comprise entre 15 et 60 cm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante annuelle assez petite au développement printanier. La plante adulte a une hauteur comprise entre 15 et 60 cm.
 Les feuilles sont formées de trois folioles cordiformes, dentées près du sommet et portant une tache foncée au centre.
 Les fleurs sont jaunes, groupées par trois ou quatre à l'extrémité de hampes florales prenant naissance à l'aisselle des feuilles.
 Les fruits sont des gousses épineuses de 5-6 mm de diamètre, à spires assez lâches en cylindre de 2 à 4 mm de hauteur. Les épines sont courtes (&lt; 1 mm).
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luzerne_d%27Arabie</t>
+          <t>Luzerne_d'Arabie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante fourragère et engrais vert.
 </t>
